--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B255F9-B24C-45B9-9C26-8060DD78490B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F0CF1-2DE5-45D6-B6B1-B04933D77177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3420" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>cookie_base_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -490,7 +494,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -524,12 +528,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F0CF1-2DE5-45D6-B6B1-B04933D77177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62107B1F-5411-4FDD-B6D1-F4A150E6EBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hakurikiko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kyorikiko</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>egg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komugiko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62107B1F-5411-4FDD-B6D1-F4A150E6EBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B7202-EE16-4432-BBE2-1510EE197910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kyorikiko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>suger</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -479,11 +479,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A3:A7" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -494,11 +494,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B7202-EE16-4432-BBE2-1510EE197910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41CBF9E-DFD2-477D-8BEB-7CB5C994B27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parfe_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corn_frake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cream_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -479,7 +495,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -543,12 +559,72 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41CBF9E-DFD2-477D-8BEB-7CB5C994B27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA911D-198E-47CE-81B9-DF617EF4400E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1665" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>ice_cream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_sell_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_buy_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_hyouji</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,18 +465,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -477,8 +492,17 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -492,8 +516,17 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
@@ -507,8 +540,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -522,8 +564,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -537,8 +588,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -552,8 +612,17 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -567,8 +636,17 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -582,8 +660,17 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -597,8 +684,17 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -612,8 +708,17 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1500</v>
+      </c>
+      <c r="F10">
+        <v>750</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -625,6 +730,15 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA911D-198E-47CE-81B9-DF617EF4400E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063BCAB-2E8B-4EAA-8A19-506263ED8D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1665" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2145" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ice_cream_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shop_sell_price</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,6 +91,30 @@
   </si>
   <si>
     <t>item_hyouji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armond_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milkpan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -493,13 +513,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -528,7 +548,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A16" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -604,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -613,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -628,19 +648,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -652,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,19 +696,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -700,19 +720,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -724,21 +744,141 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>500</v>
-      </c>
-      <c r="F11">
-        <v>250</v>
-      </c>
-      <c r="G11">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1500</v>
+      </c>
+      <c r="F15">
+        <v>750</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063BCAB-2E8B-4EAA-8A19-506263ED8D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96969E7-75A6-4DCD-97AC-A340F2A320F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2145" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -747,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>100</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96969E7-75A6-4DCD-97AC-A340F2A320F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F23E44-F286-43E8-A62E-92F0B5B9A9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>milkpan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pan_knife</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -548,7 +552,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A16" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -753,10 +757,10 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -768,22 +772,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -801,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -816,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -825,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -840,22 +844,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>750</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -864,21 +868,45 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>750</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>300</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>150</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F23E44-F286-43E8-A62E-92F0B5B9A9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14AF3D2-FA02-4EA0-9F6C-C9D14596346C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -119,6 +121,34 @@
   </si>
   <si>
     <t>pan_knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_chip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kirakira_heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>juwely_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mix_color_spread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decopen_choco</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decopen_choco_white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakura_chip</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -552,7 +582,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A24" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -748,19 +778,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -772,19 +802,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -796,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -805,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -820,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -835,7 +865,7 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -853,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -868,19 +898,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -892,21 +922,189 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>300</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>150</v>
       </c>
-      <c r="G17">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1500</v>
+      </c>
+      <c r="F23">
+        <v>750</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14AF3D2-FA02-4EA0-9F6C-C9D14596346C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C5E269-EC03-41E9-BA07-8093CE67AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bugget</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>water</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>sakura_chip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_powder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -778,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -802,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -850,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -874,13 +874,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -898,13 +898,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -922,13 +922,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C5E269-EC03-41E9-BA07-8093CE67AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBCAFC-3683-4FE1-A4D1-F28A5D0C9A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -148,7 +148,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bugget_powder</t>
+    <t>maffin_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crepe_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>princesstota_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bisucouti_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,7 +598,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A24" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A28" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -730,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -946,22 +962,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,22 +986,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -994,19 +1010,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
         <v>10</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1018,22 +1034,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,22 +1058,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,6 +1121,102 @@
         <v>150</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1200</v>
+      </c>
+      <c r="F25">
+        <v>150</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5000</v>
+      </c>
+      <c r="F28">
+        <v>2500</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBCAFC-3683-4FE1-A4D1-F28A5D0C9A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F69EA-C11A-4B77-94E5-42D07627A59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>juwely_suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mix_color_spread</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>bugget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jewely_suger</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -905,7 +905,7 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -929,7 +929,7 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1130,7 +1130,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F69EA-C11A-4B77-94E5-42D07627A59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B5E1D-2DC8-45CC-8C17-C3ACF249262F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2865" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>jewely_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baking_powder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +606,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A28" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A30" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -650,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -659,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -674,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -683,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -698,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -707,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -722,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -731,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -755,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -770,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -779,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -794,19 +802,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -818,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -833,7 +841,7 @@
         <v>50</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -866,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -890,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -905,7 +913,7 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -929,7 +937,7 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -938,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -953,7 +961,7 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,19 +970,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -986,13 +994,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1001,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1010,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1019,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1034,22 +1042,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,22 +1066,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,19 +1090,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F23">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1106,13 +1114,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>300</v>
@@ -1130,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1139,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1154,7 +1162,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1178,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1187,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F27">
         <v>150</v>
@@ -1202,21 +1210,69 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>150</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>5000</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>2500</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B5E1D-2DC8-45CC-8C17-C3ACF249262F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C7DB95-C306-4FBF-8D02-DBB109195E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2865" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="2670" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F26">
         <v>150</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F27">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C7DB95-C306-4FBF-8D02-DBB109195E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED80772-473B-4AF5-8054-5EAB601339A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2670" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
+    <sheet name="FarmItemDB_1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -128,10 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mix_color_spread</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>decopen_choco</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -173,6 +170,14 @@
   </si>
   <si>
     <t>baking_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mix_color_sprinkles</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -545,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -730,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -802,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -898,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -922,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -946,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -970,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -994,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1186,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1210,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1234,7 +1239,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1258,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1275,6 +1280,223 @@
       <c r="G30">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>ROW()+98</f>
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A5" si="0">ROW()+98</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED80772-473B-4AF5-8054-5EAB601339A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DFEF6-50B8-4A7C-A3D4-6A59CE32A99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>mix_color_sprinkles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slimejelly_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creampuff_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -548,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,7 +619,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A30" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A32" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1167,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1176,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F26">
         <v>150</v>
@@ -1191,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1200,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F27">
         <v>150</v>
@@ -1215,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1224,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F28">
         <v>150</v>
@@ -1239,7 +1247,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1248,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1263,21 +1271,69 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1500</v>
+      </c>
+      <c r="F30">
+        <v>750</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>1500</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>10000</v>
+      </c>
+      <c r="F32">
         <v>5000</v>
       </c>
-      <c r="F30">
-        <v>2500</v>
-      </c>
-      <c r="G30">
+      <c r="G32">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DFEF6-50B8-4A7C-A3D4-6A59CE32A99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2288ABC9-3569-40A6-8016-C0239BAC88A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="1680" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>creampuff_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shishamo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +623,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A32" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -863,19 +867,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -887,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -911,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -935,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -959,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -974,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1007,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1022,7 +1026,7 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,22 +1035,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1064,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1079,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1088,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1103,22 +1107,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>300</v>
-      </c>
       <c r="F23">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1151,19 +1155,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F25">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1175,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1184,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F26">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1199,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1223,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1232,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <v>150</v>
@@ -1247,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1256,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F29">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1271,7 +1275,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1295,7 +1299,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1304,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F31">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1319,21 +1323,45 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3000</v>
+      </c>
+      <c r="F32">
+        <v>1500</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>10000</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>5000</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2288ABC9-3569-40A6-8016-C0239BAC88A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22707A1D-8AA8-472C-8781-CF7E8CFDDDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1680" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -867,19 +867,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -915,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -939,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -963,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -972,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22707A1D-8AA8-472C-8781-CF7E8CFDDDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3892D2E-1575-40CB-8278-C1780E7BFE10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
         <v>150</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3892D2E-1575-40CB-8278-C1780E7BFE10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE895E-CF6B-4CAC-A6A7-023FE0B40A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3480" windowWidth="23505" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>shishamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siboribukuro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whisk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row_cream</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1449,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A5" si="0">ROW()+98</f>
+        <f t="shared" ref="A3:A8" si="0">ROW()+98</f>
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1465,7 +1477,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1474,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1489,32 +1501,95 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
@@ -1581,6 +1656,9 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE895E-CF6B-4CAC-A6A7-023FE0B40A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67722A6F-9142-40B9-9700-B9FFA774E09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3480" windowWidth="23505" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="2280" windowWidth="23505" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67722A6F-9142-40B9-9700-B9FFA774E09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9E20D-218B-4810-94E0-459D10E90B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2280" windowWidth="23505" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1275,7 @@
         <v>800</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F30">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F31">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1388,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9E20D-218B-4810-94E0-459D10E90B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F19838-653E-482E-B2F0-EF6B3AEC1979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>row_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maple_syrup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cocoa_powder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,7 +643,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A35" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -975,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -984,10 +992,10 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -999,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1008,13 +1016,13 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1023,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1038,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1047,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1056,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1071,19 +1079,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1095,13 +1103,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -1119,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1128,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1143,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,22 +1175,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1191,19 +1199,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1215,13 +1223,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>300</v>
@@ -1239,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1248,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1263,7 +1271,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1272,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F29">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1296,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1311,7 +1319,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1326,7 +1334,7 @@
         <v>400</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1335,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1344,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F32">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1359,21 +1367,69 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>800</v>
+      </c>
+      <c r="F33">
+        <v>400</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <v>1500</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>10000</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>5000</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F19838-653E-482E-B2F0-EF6B3AEC1979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE305F98-1E7F-4AA6-860F-9BDE2C00EE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1350" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>35</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>150</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>150</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>150</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>150</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>400</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>1500</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE305F98-1E7F-4AA6-860F-9BDE2C00EE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4350F21-4FC4-410C-A43F-CE080269E7CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1350" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="1965" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>150</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>150</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>400</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>1500</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4350F21-4FC4-410C-A43F-CE080269E7CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF169DC3-A5AB-4F96-BF6E-C5F76C9D6058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1965" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,22 @@
   </si>
   <si>
     <t>cocoa_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,7 +659,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A39" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1214,7 +1230,7 @@
         <v>150</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1256,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F28">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1271,7 +1287,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1280,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1295,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1304,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1319,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1328,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F31">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1343,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1352,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F32">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1367,7 +1383,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1376,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F33">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1391,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1400,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F34">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1415,21 +1431,117 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>800</v>
+      </c>
+      <c r="F35">
+        <v>400</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3000</v>
+      </c>
+      <c r="F38">
+        <v>1500</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>10000</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>5000</v>
       </c>
-      <c r="G35">
+      <c r="G39">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF169DC3-A5AB-4F96-BF6E-C5F76C9D6058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3047A5-5173-46D4-9E5D-C237FD6DCDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -768,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
         <v>15</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -999,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1008,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1032,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3047A5-5173-46D4-9E5D-C237FD6DCDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29CC24-DE34-48BF-9827-3F0CAADB9BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -912,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F26">
         <v>150</v>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>150</v>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29CC24-DE34-48BF-9827-3F0CAADB9BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE5C86-BFD4-4550-B2E0-792335F02AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>recipibook_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>juice_mixer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -659,7 +663,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A39" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A40" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1227,7 +1231,7 @@
         <v>150</v>
       </c>
       <c r="F26">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1251,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1263,19 +1267,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1287,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1296,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1311,7 +1315,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1320,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1335,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1344,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1359,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1368,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1383,7 +1387,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1407,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1431,7 +1435,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1440,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F35">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1455,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1464,13 +1468,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1479,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1488,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F37">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1503,7 +1507,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1512,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F38">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1527,21 +1531,45 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <v>1500</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>10000</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>5000</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE5C86-BFD4-4550-B2E0-792335F02AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA557D-0F86-4CC6-8FB6-2CCD109363CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
     <sheet name="FarmItemDB_1" sheetId="7" r:id="rId2"/>
+    <sheet name="EmeraldShopItemDB_1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +231,10 @@
   </si>
   <si>
     <t>juice_mixer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meid_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1590,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,4 +1866,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>ROW()+198</f>
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A6" si="0">ROW()+198</f>
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA557D-0F86-4CC6-8FB6-2CCD109363CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342FEB1-FAE8-41CA-8DC1-982A776882E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>Meid_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,7 +672,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A40" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A41" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1416,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1425,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1440,7 +1444,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1464,7 +1468,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1473,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1488,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1497,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1512,7 +1516,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1521,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1536,7 +1540,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1545,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F39">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1560,21 +1564,45 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3000</v>
+      </c>
+      <c r="F40">
+        <v>1500</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>10000</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>5000</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>1</v>
       </c>
     </row>
@@ -1872,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342FEB1-FAE8-41CA-8DC1-982A776882E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21194C2B-75A4-4868-AC5F-2029BD70E7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -239,6 +239,34 @@
   </si>
   <si>
     <t>recipibook_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crystal_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itembox_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itembox_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itembox_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miko_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sukumizu_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kakejiku</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -609,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,7 +700,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A41" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1012,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1024,10 +1052,10 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1036,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1045,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1060,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1069,13 +1097,13 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1084,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1093,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1108,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1117,13 +1145,13 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1156,19 +1184,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>50</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1180,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1189,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1204,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1213,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1228,22 +1256,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>150</v>
-      </c>
       <c r="F26">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1252,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1261,13 +1289,13 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1276,7 +1304,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1285,13 +1313,13 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1300,19 +1328,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1324,13 +1352,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>200</v>
@@ -1348,19 +1376,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1372,19 +1400,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1396,7 +1424,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1405,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1420,7 +1448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1429,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1444,7 +1472,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1453,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1468,7 +1496,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1477,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1492,7 +1520,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1501,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F37">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1516,7 +1544,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1525,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1540,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1549,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1564,7 +1592,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1573,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F40">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1588,21 +1616,117 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>800</v>
+      </c>
+      <c r="F41">
+        <v>400</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3000</v>
+      </c>
+      <c r="F44">
+        <v>1500</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>10000</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>5000</v>
       </c>
-      <c r="G41">
+      <c r="G45">
         <v>1</v>
       </c>
     </row>
@@ -1900,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1941,13 +2065,13 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1965,16 +2089,16 @@
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1989,16 +2113,16 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2037,7 +2161,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2046,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21194C2B-75A4-4868-AC5F-2029BD70E7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B4492-0450-4A32-82BC-D86D35E1BB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1151,7 @@
         <v>35</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F33">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B4492-0450-4A32-82BC-D86D35E1BB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F7141-CC2A-464D-8757-2A1845F0F9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -267,6 +267,14 @@
   </si>
   <si>
     <t>Kakejiku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>himmeli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>white_Orchid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -637,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -700,7 +708,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A47" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1424,19 +1432,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
       <c r="E33">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1448,19 +1456,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1472,7 +1480,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1481,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1496,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1505,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
         <v>100</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1520,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1529,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1544,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1553,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1568,7 +1576,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1592,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1601,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F40">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1616,7 +1624,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1625,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F41">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1640,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1649,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1664,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1673,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F43">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1688,7 +1696,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1697,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="F44">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1712,28 +1720,76 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>250</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3000</v>
+      </c>
+      <c r="F46">
+        <v>1500</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>10000</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>5000</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F7141-CC2A-464D-8757-2A1845F0F9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74325D03-B67F-40A2-807E-3C81C7EAD671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2124,7 +2124,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2148,7 +2148,7 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -2172,7 +2172,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>5</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74325D03-B67F-40A2-807E-3C81C7EAD671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89B2A7B-CBC1-4FE9-9C9A-53C95777D57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -275,6 +275,14 @@
   </si>
   <si>
     <t>white_Orchid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Glass_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bafomet_Acce</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2078,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2130,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2141,7 +2149,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A6" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A8" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2157,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2181,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2193,22 +2201,22 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2217,29 +2225,71 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
@@ -2303,6 +2353,12 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89B2A7B-CBC1-4FE9-9C9A-53C95777D57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401F8F0-5CDB-4DDF-8432-227E7F116529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>Bafomet_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AngelWing_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PinkGoth_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2086,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2149,11 +2157,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2162,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2177,7 +2185,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2186,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2201,7 +2209,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2210,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2225,7 +2233,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2234,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2249,22 +2257,22 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2273,29 +2281,71 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
@@ -2359,6 +2409,12 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401F8F0-5CDB-4DDF-8432-227E7F116529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F8DAE-CC81-43FD-A0F7-D5880A5DC023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="540" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F8DAE-CC81-43FD-A0F7-D5880A5DC023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20A284-84B6-422D-BE24-7E9D16B54B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="540" windowWidth="24075" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>white_Orchid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Glass_Acce</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,6 +287,10 @@
   </si>
   <si>
     <t>PinkGoth_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>white_lily</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1472,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2096,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2209,7 +2209,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20A284-84B6-422D-BE24-7E9D16B54B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC16A2A-FE0E-410C-9DAF-0FD91B569248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1649,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1745,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC16A2A-FE0E-410C-9DAF-0FD91B569248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039FB682-1528-4EFA-A718-C17306D007B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -291,6 +291,26 @@
   </si>
   <si>
     <t>white_lily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amabie_pendant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>green_pendant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star_pendant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aquamarine_pendant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maneki_cat</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,7 +744,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A47" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A52" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1496,19 +1516,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1520,19 +1540,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1544,19 +1564,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1568,19 +1588,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1592,19 +1612,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1616,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1625,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1640,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1649,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="F41">
         <v>100</v>
-      </c>
-      <c r="F41">
-        <v>50</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1664,7 +1684,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1673,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1688,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1697,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F43">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,7 +1732,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1721,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F44">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1736,7 +1756,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1745,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1760,7 +1780,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1769,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1784,21 +1804,141 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>150</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>800</v>
+      </c>
+      <c r="F48">
+        <v>400</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>250</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>150</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3000</v>
+      </c>
+      <c r="F51">
+        <v>1500</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>10000</v>
       </c>
-      <c r="F47">
+      <c r="F52">
         <v>5000</v>
       </c>
-      <c r="G47">
+      <c r="G52">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039FB682-1528-4EFA-A718-C17306D007B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80138C83-9302-457D-8C42-C00B0980AB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>maneki_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vanilla_potion</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -681,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,7 +756,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A52" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A55" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1156,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1165,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1189,13 +1201,13 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1204,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1213,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1228,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1252,19 +1264,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1276,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1285,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1300,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1309,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1324,22 +1336,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>20</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>150</v>
-      </c>
       <c r="F27">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,7 +1360,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1357,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1372,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1381,13 +1393,13 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,13 +1408,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>200</v>
@@ -1420,19 +1432,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F31">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1444,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1453,10 +1465,10 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="F32">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1477,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1492,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1501,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1516,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1525,10 +1537,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F35">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1540,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1564,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1573,10 +1585,10 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="F37">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1588,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1597,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F38">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1612,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1636,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="E40">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1660,19 +1672,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1684,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1693,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1708,7 +1720,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1717,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="E43">
+        <v>200</v>
+      </c>
+      <c r="F43">
         <v>100</v>
-      </c>
-      <c r="F43">
-        <v>50</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1732,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1741,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F44">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1756,7 +1768,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1765,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1780,7 +1792,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1789,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1804,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1813,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1828,7 +1840,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1837,13 +1849,13 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1852,7 +1864,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1861,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1876,7 +1888,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1885,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1900,7 +1912,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1909,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F51">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1924,21 +1936,93 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3000</v>
+      </c>
+      <c r="F53">
+        <v>1500</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>10000</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>5000</v>
       </c>
-      <c r="G52">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1500</v>
+      </c>
+      <c r="F55">
+        <v>750</v>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80138C83-9302-457D-8C42-C00B0980AB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8FF21-C910-4AC2-A7CF-70EC92BD9FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -696,7 +696,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1960,7 +1960,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F53">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F54">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="F55">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="G55">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8FF21-C910-4AC2-A7CF-70EC92BD9FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968890-0192-470E-9B06-B0EE519BFA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -323,6 +323,14 @@
   </si>
   <si>
     <t>vanilla_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -756,7 +764,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A55" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A57" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1489,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F33">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1513,10 +1521,10 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F34">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1537,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F35">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1585,10 +1593,10 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F37">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1633,10 +1641,10 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F39">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1657,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F40">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1681,10 +1689,10 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F41">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1744,7 +1752,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1753,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1768,7 +1776,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1777,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1792,7 +1800,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1801,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1816,7 +1824,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1825,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F47">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1840,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1849,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1864,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1873,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1888,7 +1896,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1897,13 +1905,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1912,7 +1920,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1921,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F51">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1936,7 +1944,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1945,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F52">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1960,7 +1968,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1969,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F53">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1984,7 +1992,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1993,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2008,21 +2016,69 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>800</v>
+      </c>
+      <c r="F55">
+        <v>400</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3000</v>
+      </c>
+      <c r="F56">
+        <v>1500</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>10000</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>5000</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968890-0192-470E-9B06-B0EE519BFA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3D801-F1EB-4B4F-9188-AB89B5174A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -1017,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1089,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -1161,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>40</v>
@@ -1233,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>35</v>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3D801-F1EB-4B4F-9188-AB89B5174A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E29A753-9672-411E-84EB-7107933EE93F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>recipibook_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -701,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,7 +768,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A57" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -788,7 +792,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -812,7 +816,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -836,7 +840,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -860,7 +864,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -884,7 +888,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -908,7 +912,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -932,7 +936,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -956,7 +960,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -980,7 +984,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1004,7 +1008,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1028,7 +1032,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1052,7 +1056,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1076,7 +1080,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1100,7 +1104,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1124,7 +1128,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1148,7 +1152,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1172,7 +1176,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1196,7 +1200,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1220,7 +1224,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1244,7 +1248,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1268,7 +1272,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1292,7 +1296,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1316,7 +1320,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1340,7 +1344,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1364,7 +1368,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1388,7 +1392,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1412,7 +1416,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1436,7 +1440,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1460,7 +1464,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1484,11 +1488,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1497,10 +1501,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1508,11 +1512,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1521,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1532,11 +1536,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1545,10 +1549,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="F35">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1556,23 +1560,23 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1580,23 +1584,23 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1604,23 +1608,23 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1628,23 +1632,23 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="F39">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1652,23 +1656,23 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="F40">
-        <v>1500</v>
+        <v>125</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1676,23 +1680,23 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="F41">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1700,11 +1704,11 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1713,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1724,11 +1728,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1737,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1748,11 +1752,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1761,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1772,11 +1776,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1785,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F45">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1796,11 +1800,11 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1809,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1820,11 +1824,11 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1833,22 +1837,22 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1857,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="F48">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1868,11 +1872,11 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1881,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1892,11 +1896,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1905,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1916,11 +1920,11 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1929,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F51">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1940,11 +1944,11 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1953,132 +1957,12 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="F52">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>500</v>
-      </c>
-      <c r="F53">
-        <v>250</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>300</v>
-      </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>800</v>
-      </c>
-      <c r="F55">
-        <v>400</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>3000</v>
-      </c>
-      <c r="F56">
-        <v>1500</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>10000</v>
-      </c>
-      <c r="F57">
-        <v>5000</v>
-      </c>
-      <c r="G57">
         <v>1</v>
       </c>
     </row>
@@ -2091,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2154,7 +2038,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">ROW()+98</f>
+        <f t="shared" ref="A3:A13" si="0">ROW()+98</f>
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2297,19 +2181,124 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>1500</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -2364,6 +2353,21 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2374,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2437,7 +2441,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2628,7 +2632,28 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
@@ -2695,6 +2720,9 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E29A753-9672-411E-84EB-7107933EE93F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5214-7432-4EBE-BFFC-A4C75098B85D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -768,7 +768,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -792,7 +792,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -816,7 +816,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -840,7 +840,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -864,7 +864,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -888,7 +888,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -912,7 +912,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -936,7 +936,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -960,7 +960,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -984,7 +984,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1104,7 +1104,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1200,7 +1200,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1224,7 +1224,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1272,7 +1272,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1344,7 +1344,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1392,7 +1392,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1416,7 +1416,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1501,10 +1501,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F33">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A34:A52" si="1">ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1560,7 +1560,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1608,7 +1608,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1728,7 +1728,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1776,7 +1776,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1824,7 +1824,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1848,7 +1848,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1944,7 +1944,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5214-7432-4EBE-BFFC-A4C75098B85D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3E60E-C8EE-4673-857C-034389C06BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>amabie_pendant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>green_pendant</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,6 +331,14 @@
   </si>
   <si>
     <t>recipibook_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amabie_statue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kuma_nuigurumi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -707,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,7 +748,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -768,7 +772,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -792,7 +796,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -816,7 +820,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -840,7 +844,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -864,7 +868,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -888,7 +892,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -912,7 +916,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -936,7 +940,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -960,7 +964,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -984,7 +988,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1008,7 +1012,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1032,7 +1036,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1056,7 +1060,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1080,7 +1084,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1104,7 +1108,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1128,7 +1132,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1152,7 +1156,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1176,11 +1180,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1200,7 +1204,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1224,7 +1228,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1248,7 +1252,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1272,7 +1276,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1296,7 +1300,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1320,7 +1324,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1344,7 +1348,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1368,7 +1372,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1392,7 +1396,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1416,7 +1420,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1440,11 +1444,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1464,7 +1468,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1488,7 +1492,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1512,11 +1516,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ref="A34:A52" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1525,10 +1529,10 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1536,11 +1540,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1560,7 +1564,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1584,11 +1588,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1632,7 +1636,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1656,11 +1660,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1680,7 +1684,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1704,7 +1708,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1728,7 +1732,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1752,11 +1756,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1776,7 +1780,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1800,7 +1804,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1824,7 +1828,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1848,7 +1852,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1872,7 +1876,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1896,11 +1900,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1920,7 +1924,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1944,7 +1948,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2234,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2258,7 +2262,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2282,7 +2286,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2381,7 +2385,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2441,7 +2445,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A11" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A12" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2656,7 +2660,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3E60E-C8EE-4673-857C-034389C06BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903C5CC-B7D7-4E0A-A974-1489E91FF4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Meid_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>recipibook_6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -258,10 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Miko_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sukumizu_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,6 +331,26 @@
   </si>
   <si>
     <t>kuma_nuigurumi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meid_Black_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedDress_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwincleStarDust_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlowerHairpin_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BalloonHat_Acce</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -748,7 +760,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -772,7 +784,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -796,7 +808,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -820,7 +832,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -844,7 +856,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -868,7 +880,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -892,7 +904,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -916,7 +928,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -940,7 +952,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -964,7 +976,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -988,7 +1000,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1012,7 +1024,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1036,7 +1048,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1060,7 +1072,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1084,7 +1096,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1108,11 +1120,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1156,7 +1168,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1180,11 +1192,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1204,7 +1216,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1228,7 +1240,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1252,7 +1264,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1276,7 +1288,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1300,7 +1312,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1324,7 +1336,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1348,7 +1360,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1372,7 +1384,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1396,7 +1408,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1420,7 +1432,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1444,11 +1456,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1468,11 +1480,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1492,11 +1504,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1516,11 +1528,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A34:A52" si="1">ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1540,11 +1552,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1564,7 +1576,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1588,11 +1600,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1612,7 +1624,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1636,7 +1648,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1660,11 +1672,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1684,7 +1696,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1708,7 +1720,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1732,11 +1744,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1756,11 +1768,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1780,7 +1792,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1804,7 +1816,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1828,7 +1840,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1852,7 +1864,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1876,7 +1888,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1900,11 +1912,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1924,7 +1936,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1948,7 +1960,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2190,7 +2202,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2214,7 +2226,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2238,7 +2250,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2262,7 +2274,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2286,7 +2298,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2382,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2437,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2440,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A12" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A15" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2473,7 +2485,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2497,7 +2509,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2521,7 +2533,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2545,7 +2557,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2569,7 +2581,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2593,22 +2605,22 @@
         <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2617,7 +2629,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2626,13 +2638,13 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2641,19 +2653,19 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2665,32 +2677,95 @@
         <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -2748,6 +2823,15 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903C5CC-B7D7-4E0A-A974-1489E91FF4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DF650-9EE4-40E4-BEAB-7E7688831BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>parfe_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ice_cream</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,6 +347,42 @@
   </si>
   <si>
     <t>BalloonHat_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry_parfe_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glass_bowl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zarame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>castella_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rose_water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marsala_wine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_cheese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ricotta_cheese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yogurt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -721,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -749,18 +781,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -784,7 +816,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -797,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -808,7 +840,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -821,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -832,11 +864,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -845,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -872,19 +904,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -893,22 +925,22 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -917,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -928,11 +960,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -941,22 +973,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -965,22 +997,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -989,58 +1021,58 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1048,35 +1080,35 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -1096,11 +1128,11 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1120,11 +1152,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1144,11 +1176,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1160,19 +1192,19 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1181,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1192,11 +1224,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1205,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1216,7 +1248,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1229,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1240,11 +1272,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1253,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1264,11 +1296,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1277,22 +1309,22 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1301,34 +1333,34 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1336,20 +1368,20 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>50</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>50</v>
@@ -1360,11 +1392,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -1373,70 +1405,70 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1445,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1456,11 +1488,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1469,28 +1501,28 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F31">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -1504,23 +1536,23 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1528,11 +1560,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ref="A34:A52" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1541,10 +1573,10 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1552,11 +1584,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1565,10 +1597,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1576,23 +1608,23 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
       <c r="E36">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1600,7 +1632,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1610,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1624,23 +1656,23 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1648,11 +1680,11 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1672,11 +1704,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1685,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F40">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1696,11 +1728,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1709,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F41">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1720,11 +1752,11 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1733,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1744,11 +1776,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1757,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1768,11 +1800,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1781,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1792,11 +1824,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1805,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1816,11 +1848,11 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1829,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1840,11 +1872,11 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1853,22 +1885,22 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F47">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1877,22 +1909,22 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1901,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1912,11 +1944,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1925,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F50">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1936,11 +1968,11 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1949,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F51">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1960,11 +1992,11 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1973,12 +2005,60 @@
         <v>1</v>
       </c>
       <c r="E52">
+        <v>1300</v>
+      </c>
+      <c r="F52">
+        <v>650</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3000</v>
+      </c>
+      <c r="F53">
+        <v>1500</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>ROW()-2</f>
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>10000</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>5000</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>1</v>
       </c>
     </row>
@@ -1991,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2019,13 +2099,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2054,11 +2134,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A13" si="0">ROW()+98</f>
+        <f>ROW()+98</f>
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2078,11 +2158,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -2102,11 +2182,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -2115,22 +2195,22 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -2139,58 +2219,58 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2198,71 +2278,71 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>1500</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2270,23 +2350,23 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>3000</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2294,83 +2374,209 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()+98</f>
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>ROW()+98</f>
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>ROW()+98</f>
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>600</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>ROW()+98</f>
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>3000</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>1500</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>ROW()+98</f>
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>ROW()+98</f>
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>ROW()+98</f>
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -2384,6 +2590,24 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2394,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2422,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2437,7 +2661,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2457,11 +2681,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A15" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A16" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2485,7 +2709,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2509,7 +2733,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2533,7 +2757,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2557,7 +2781,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2581,7 +2805,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2605,7 +2829,7 @@
         <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2629,7 +2853,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2653,7 +2877,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2677,7 +2901,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2701,7 +2925,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2725,7 +2949,7 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2749,7 +2973,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2768,7 +2992,28 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -2832,6 +3077,9 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DF650-9EE4-40E4-BEAB-7E7688831BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747224C9-B0F5-4F41-B073-33836BF1A402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -816,7 +816,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -840,7 +840,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -864,7 +864,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -888,7 +888,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -936,7 +936,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -960,7 +960,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -984,7 +984,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="F11">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1104,7 +1104,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1200,7 +1200,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1224,7 +1224,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1272,7 +1272,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1344,7 +1344,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1392,7 +1392,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1416,7 +1416,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1560,7 +1560,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A34:A54" si="1">ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1608,7 +1608,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1728,7 +1728,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1776,7 +1776,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1824,7 +1824,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1848,7 +1848,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1944,7 +1944,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1968,7 +1968,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F51">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2016,7 +2016,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2040,7 +2040,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2073,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()+98</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2134,7 +2134,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2182,7 +2182,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2230,7 +2230,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2254,7 +2254,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2278,7 +2278,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2302,7 +2302,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2350,7 +2350,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2374,7 +2374,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2446,7 +2446,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2470,7 +2470,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2494,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2518,7 +2518,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()+98</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747224C9-B0F5-4F41-B073-33836BF1A402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15B543-02D4-43D4-A96F-279DC02CCF64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15B543-02D4-43D4-A96F-279DC02CCF64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A222AFAB-918D-4035-BA52-88A1626DC474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -383,6 +383,26 @@
   </si>
   <si>
     <t>yogurt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oil_extracter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wind_mixer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copper_coin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diamond_1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -792,7 +812,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1540,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1552,31 +1572,31 @@
         <v>500</v>
       </c>
       <c r="F33">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ref="A34:A54" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1584,35 +1604,35 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A36:A59" si="1">ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1621,10 +1641,10 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1636,7 +1656,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1645,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F37">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1660,7 +1680,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1669,10 +1689,10 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F38">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1684,19 +1704,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
       <c r="E39">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1708,19 +1728,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="F40">
-        <v>75</v>
+        <v>1500</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1732,19 +1752,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1756,19 +1776,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="F42">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1780,19 +1800,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>1250</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1804,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1813,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1828,7 +1848,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1837,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1852,7 +1872,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1861,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="E46">
+        <v>200</v>
+      </c>
+      <c r="F46">
         <v>100</v>
-      </c>
-      <c r="F46">
-        <v>50</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1876,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1885,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1900,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1909,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="F48">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,7 +1944,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1933,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1948,7 +1968,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1957,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1972,7 +1992,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1981,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1996,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2005,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F52">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2020,7 +2040,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2029,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F53">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2044,21 +2064,141 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>250</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>300</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>250</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1300</v>
+      </c>
+      <c r="F57">
+        <v>650</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3000</v>
+      </c>
+      <c r="F58">
+        <v>1500</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>10000</v>
       </c>
-      <c r="F54">
+      <c r="F59">
         <v>5000</v>
       </c>
-      <c r="G54">
+      <c r="G59">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A222AFAB-918D-4035-BA52-88A1626DC474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74620A3E-8758-4F42-BE35-1BBFE8A5FF6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3224,6 +3224,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74620A3E-8758-4F42-BE35-1BBFE8A5FF6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3402A8-7EDE-427B-B524-91D50D684E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -403,6 +403,14 @@
   </si>
   <si>
     <t>diamond_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_yellow</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2211,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2258,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">ROW()+98</f>
+        <f t="shared" ref="A2:A21" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2278,7 +2286,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2287,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2302,7 +2310,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -2311,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2326,7 +2334,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -2335,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2350,7 +2358,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -2359,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2374,7 +2382,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -2383,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2398,7 +2406,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -2407,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
         <v>40</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2422,7 +2430,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -2431,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2446,7 +2454,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -2455,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2470,22 +2478,22 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2494,22 +2502,22 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,19 +2526,19 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2542,19 +2550,19 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2566,19 +2574,19 @@
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2590,7 +2598,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2599,10 +2607,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F16">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2614,19 +2622,19 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2638,19 +2646,19 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2662,29 +2670,71 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>500</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>250</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -2748,6 +2798,12 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2760,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3402A8-7EDE-427B-B524-91D50D684E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C9DC5-0BDB-4E92-9462-72B6D60F969A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -411,6 +411,26 @@
   </si>
   <si>
     <t>egg_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sponge_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custard_cream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marzipan_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_ricotta_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cannoli_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -781,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1625,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1636,7 +1656,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:A59" si="1">ROW()-2</f>
+        <f t="shared" ref="A36:A64" si="1">ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2208,6 +2228,126 @@
       </c>
       <c r="G59">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1500</v>
+      </c>
+      <c r="F60">
+        <v>750</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="F61">
+        <v>250</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+      <c r="F63">
+        <v>250</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>5000</v>
+      </c>
+      <c r="F64">
+        <v>2500</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C9DC5-0BDB-4E92-9462-72B6D60F969A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83F7B7-AF13-4A38-8042-8863C208CFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1588,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1600,10 +1600,10 @@
         <v>500</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1621,46 +1621,46 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A35:A64" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="F35">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:A64" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1669,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1693,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F38">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1741,10 +1741,10 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F39">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1765,10 +1765,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F40">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="F42">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1824,11 +1824,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F43">
-        <v>1250</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2341,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F64">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="G64">
         <v>3</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83F7B7-AF13-4A38-8042-8863C208CFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D92FB-AEF5-4C47-888B-38FDA0E661B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="3090" windowWidth="21195" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2164,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2173,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F57">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2197,13 +2197,13 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F58">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2221,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F59">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2245,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="F60">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2269,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F61">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2293,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D92FB-AEF5-4C47-888B-38FDA0E661B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB172EA-B3D0-426B-B119-3A5B385C814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3090" windowWidth="21195" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -2956,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB172EA-B3D0-426B-B119-3A5B385C814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2108EBD-40E8-4DD0-BAD9-44FA3DA29B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -431,6 +431,10 @@
   </si>
   <si>
     <t>cannoli_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nekomimi_Acce</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2954,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3017,7 +3021,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A16" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A17" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3237,22 +3241,22 @@
         <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,19 +3265,19 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3285,7 +3289,7 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3294,13 +3298,13 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3309,7 +3313,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3318,13 +3322,13 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3333,7 +3337,7 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3342,61 +3346,82 @@
         <v>6</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -3416,6 +3441,9 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2108EBD-40E8-4DD0-BAD9-44FA3DA29B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6ACE69-8041-4EDC-BBA0-4CC9A00F7E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>Nekomimi_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_hyouji_on</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -805,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,9 +821,10 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -841,8 +846,11 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
         <v>0</v>
@@ -865,8 +873,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -889,8 +900,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -913,8 +927,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -937,8 +954,11 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -961,8 +981,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -985,8 +1008,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1009,8 +1035,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1033,8 +1062,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1057,8 +1089,11 @@
       <c r="G10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1081,8 +1116,11 @@
       <c r="G11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1105,8 +1143,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1129,8 +1170,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1153,8 +1197,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1175,10 +1222,13 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1199,10 +1249,13 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1223,10 +1276,13 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1247,10 +1303,13 @@
         <v>50</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1271,10 +1330,13 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1295,10 +1357,13 @@
         <v>50</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1321,8 +1386,11 @@
       <c r="G21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1343,10 +1411,13 @@
         <v>40</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1369,8 +1440,11 @@
       <c r="G23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1391,10 +1465,13 @@
         <v>35</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1417,8 +1494,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1441,8 +1521,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1465,8 +1548,11 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1489,8 +1575,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1513,8 +1602,11 @@
       <c r="G29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1537,8 +1629,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1561,8 +1656,11 @@
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1585,8 +1683,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1609,8 +1710,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1633,8 +1737,11 @@
       <c r="G34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ref="A35:A64" si="1">ROW()-2</f>
         <v>33</v>
@@ -1657,8 +1764,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1681,8 +1791,11 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1705,8 +1818,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1727,10 +1843,13 @@
         <v>300</v>
       </c>
       <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1753,8 +1872,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1777,8 +1899,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1801,8 +1926,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1825,8 +1953,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1849,8 +1980,11 @@
       <c r="G43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1873,8 +2007,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1897,8 +2034,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1921,8 +2061,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1945,8 +2088,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1969,8 +2115,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1993,8 +2142,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2017,8 +2169,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2041,8 +2196,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2065,8 +2223,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2089,8 +2250,11 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2113,8 +2277,11 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2137,8 +2304,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2161,8 +2331,11 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2185,8 +2358,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2209,8 +2385,11 @@
       <c r="G58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2233,8 +2412,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2257,8 +2439,11 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2281,8 +2466,11 @@
       <c r="G61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2305,8 +2493,11 @@
       <c r="G62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2329,8 +2520,11 @@
       <c r="G63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2352,6 +2546,9 @@
       </c>
       <c r="G64">
         <v>3</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2363,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2375,9 +2572,10 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2399,8 +2597,11 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:A21" si="0">ROW()+98</f>
         <v>100</v>
@@ -2423,8 +2624,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -2447,8 +2651,11 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -2471,8 +2678,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -2495,8 +2705,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -2519,8 +2732,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -2543,8 +2759,11 @@
       <c r="G7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -2567,8 +2786,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -2591,8 +2813,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -2615,8 +2840,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -2639,8 +2867,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2663,8 +2894,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -2687,8 +2921,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -2711,8 +2948,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -2735,8 +2975,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -2759,8 +3002,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -2783,8 +3029,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -2807,8 +3056,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -2831,8 +3083,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -2855,8 +3110,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -2879,38 +3137,41 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -2958,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2970,9 +3231,10 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2994,8 +3256,11 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()+198</f>
         <v>200</v>
@@ -3018,8 +3283,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A17" si="0">ROW()+198</f>
         <v>201</v>
@@ -3042,8 +3310,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -3066,8 +3337,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>203</v>
@@ -3090,8 +3364,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -3114,8 +3391,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -3138,8 +3418,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -3162,8 +3445,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>207</v>
@@ -3186,8 +3472,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>208</v>
@@ -3210,8 +3499,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>209</v>
@@ -3234,8 +3526,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -3258,8 +3553,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -3282,8 +3580,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -3306,8 +3607,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -3330,8 +3634,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>214</v>
@@ -3354,8 +3661,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>215</v>
@@ -3378,50 +3688,53 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6ACE69-8041-4EDC-BBA0-4CC9A00F7E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A20CAD-F2F7-439B-B00C-AD4CFCDDE816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="1920" windowWidth="21600" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>item_hyouji_on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dongriType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dongriType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -809,22 +817,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,19 +846,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
         <v>0</v>
@@ -865,19 +876,22 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -892,19 +906,22 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -919,19 +936,22 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -946,19 +966,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
       <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -973,19 +996,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1000,19 +1026,22 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1027,19 +1056,22 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1054,19 +1086,22 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1081,19 +1116,22 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1108,19 +1146,22 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1200</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>600</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1135,19 +1176,22 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1162,19 +1206,22 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1189,19 +1236,22 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>100</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1216,19 +1266,22 @@
         <v>3</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1243,19 +1296,22 @@
         <v>3</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1270,19 +1326,22 @@
         <v>3</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1297,19 +1356,22 @@
         <v>3</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
       <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1324,19 +1386,22 @@
         <v>3</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
       <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1351,19 +1416,22 @@
         <v>3</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
       <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1378,19 +1446,22 @@
         <v>3</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>25</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1405,19 +1476,22 @@
         <v>3</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1432,19 +1506,22 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1459,19 +1536,22 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
         <v>35</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1486,19 +1566,22 @@
         <v>3</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1513,19 +1596,22 @@
         <v>3</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1540,19 +1626,22 @@
         <v>0</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1567,19 +1656,22 @@
         <v>0</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>100</v>
       </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1594,19 +1686,22 @@
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>12</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1621,19 +1716,22 @@
         <v>2</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>150</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>75</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1648,19 +1746,22 @@
         <v>2</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>100</v>
       </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
       <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1675,19 +1776,22 @@
         <v>2</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>200</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>100</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1702,19 +1806,22 @@
         <v>2</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>500</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>250</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1729,19 +1836,22 @@
         <v>2</v>
       </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>3000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1500</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ref="A35:A64" si="1">ROW()-2</f>
         <v>33</v>
@@ -1756,19 +1866,22 @@
         <v>6</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>200</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>100</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1783,19 +1896,22 @@
         <v>6</v>
       </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>1000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>500</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1810,19 +1926,22 @@
         <v>6</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>800</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>400</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1837,19 +1956,22 @@
         <v>6</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>600</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>300</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1864,19 +1986,22 @@
         <v>6</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>3000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1500</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1891,19 +2016,22 @@
         <v>6</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>1500</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>750</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1918,19 +2046,22 @@
         <v>6</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>1500</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>750</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1945,19 +2076,22 @@
         <v>6</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>10000</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>5000</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1972,19 +2106,22 @@
         <v>6</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>500</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>100</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1999,19 +2136,22 @@
         <v>1</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>100</v>
       </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
       <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2026,19 +2166,22 @@
         <v>1</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>150</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>75</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2053,19 +2196,22 @@
         <v>1</v>
       </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>200</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>100</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2080,19 +2226,22 @@
         <v>1</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>250</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>125</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2107,19 +2256,22 @@
         <v>1</v>
       </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>120</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>60</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2134,19 +2286,22 @@
         <v>1</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>80</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>40</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2161,19 +2316,22 @@
         <v>1</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>120</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>60</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2188,19 +2346,22 @@
         <v>1</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>100</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
       <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2215,19 +2376,22 @@
         <v>1</v>
       </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>300</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>150</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2242,19 +2406,22 @@
         <v>1</v>
       </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>800</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>400</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2269,19 +2436,22 @@
         <v>1</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>500</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>250</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2296,19 +2466,22 @@
         <v>1</v>
       </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>300</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>150</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2323,19 +2496,22 @@
         <v>1</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>500</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>250</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2350,19 +2526,22 @@
         <v>1</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>1000</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>500</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2377,19 +2556,22 @@
         <v>1</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>1300</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>650</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>3</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2404,19 +2586,22 @@
         <v>1</v>
       </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>3000</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1500</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2431,19 +2616,22 @@
         <v>1</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>10000</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>5000</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2458,19 +2646,22 @@
         <v>1</v>
       </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>1500</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>750</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2485,19 +2676,22 @@
         <v>1</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>500</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>250</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>3</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2512,19 +2706,22 @@
         <v>1</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>500</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>250</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2539,15 +2736,18 @@
         <v>1</v>
       </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>700</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>350</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>3</v>
       </c>
-      <c r="H64" t="b">
+      <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2560,22 +2760,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2589,19 +2789,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:A21" si="0">ROW()+98</f>
         <v>100</v>
@@ -2616,19 +2819,22 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -2643,19 +2849,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -2670,19 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -2697,19 +2909,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -2724,19 +2939,22 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -2751,19 +2969,22 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -2778,19 +2999,22 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>80</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>40</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -2805,19 +3029,22 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>150</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>75</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -2832,19 +3059,22 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -2859,19 +3089,22 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2886,19 +3119,22 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -2913,19 +3149,22 @@
         <v>3</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -2940,19 +3179,22 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>150</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -2967,19 +3209,22 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>150</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -2994,19 +3239,22 @@
         <v>6</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>2000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -3021,19 +3269,22 @@
         <v>6</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>600</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>300</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -3048,19 +3299,22 @@
         <v>6</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>3000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1500</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -3075,19 +3329,22 @@
         <v>1</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -3102,19 +3359,22 @@
         <v>1</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>300</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>150</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -3129,49 +3389,52 @@
         <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>500</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>250</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -3219,22 +3482,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3248,19 +3511,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()+198</f>
         <v>200</v>
@@ -3275,19 +3541,22 @@
         <v>5</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A17" si="0">ROW()+198</f>
         <v>201</v>
@@ -3302,19 +3571,22 @@
         <v>5</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -3329,19 +3601,22 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>203</v>
@@ -3356,19 +3631,22 @@
         <v>5</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -3383,19 +3661,22 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -3410,19 +3691,22 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -3437,19 +3721,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>207</v>
@@ -3464,19 +3751,22 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>208</v>
@@ -3491,19 +3781,22 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>209</v>
@@ -3518,19 +3811,22 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -3545,19 +3841,22 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -3572,19 +3871,22 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -3599,19 +3901,22 @@
         <v>6</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -3626,19 +3931,22 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>214</v>
@@ -3653,19 +3961,22 @@
         <v>6</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>215</v>
@@ -3680,61 +3991,64 @@
         <v>6</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A20CAD-F2F7-439B-B00C-AD4CFCDDE816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED25C7D-22F6-4EBA-AC40-0D5871F41AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1920" windowWidth="21600" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>dongriType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dryer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -817,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,7 +867,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1827,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1839,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1853,29 +1857,29 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" ref="A35:A64" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1883,11 +1887,11 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A36:A65" si="1">ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1899,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G36">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1917,7 +1921,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1929,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G37">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1947,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1959,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G38">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1977,7 +1981,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1989,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G39">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2007,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2019,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <v>3000</v>
+      </c>
+      <c r="G40">
         <v>1500</v>
-      </c>
-      <c r="G40">
-        <v>750</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -2037,7 +2041,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2067,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2079,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G42">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2093,11 +2097,11 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2109,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2123,29 +2127,29 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44">
         <v>100</v>
       </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2157,7 +2161,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2169,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2187,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2199,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2217,7 +2221,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2229,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G47">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2247,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2259,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G48">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2277,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2289,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2307,7 +2311,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2319,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G50">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2337,7 +2341,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2349,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2367,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2379,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2397,7 +2401,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2409,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G53">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -2427,7 +2431,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2439,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G54">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2457,7 +2461,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2469,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2487,7 +2491,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2499,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G56">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2517,7 +2521,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2529,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G57">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2547,7 +2551,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2559,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G58">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2577,7 +2581,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2589,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G59">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2607,7 +2611,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2619,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G60">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2637,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2649,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G61">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2667,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2679,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G62">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -2697,7 +2701,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2727,7 +2731,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2739,15 +2743,45 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>700</v>
+      </c>
+      <c r="G65">
+        <v>350</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3484,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED25C7D-22F6-4EBA-AC40-0D5871F41AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB0286-4D71-49EC-8DB4-C35C67F927A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2089,7 +2089,7 @@
         <v>750</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>5000</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>250</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2797,7 +2797,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
         <v>100</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
       </c>
       <c r="H19">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB0286-4D71-49EC-8DB4-C35C67F927A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A79794-B486-475F-8342-CE5B984990D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +451,10 @@
   </si>
   <si>
     <t>dryer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gelatin</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -867,7 +871,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A45" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1171,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -1183,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1201,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1213,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1231,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -1243,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1261,25 +1265,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1291,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1321,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1351,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1381,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1411,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1441,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1456,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1471,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1483,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1501,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1513,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1531,7 +1535,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1546,10 +1550,10 @@
         <v>50</v>
       </c>
       <c r="G24">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1561,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1573,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1591,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1621,13 +1625,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1636,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1651,22 +1655,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
       <c r="G28">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1681,7 +1685,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1693,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1711,25 +1715,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1741,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1753,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1771,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1783,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1801,7 +1805,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1813,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G33">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1831,7 +1835,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1843,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1861,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1873,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G35">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1887,29 +1891,29 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:A65" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1917,11 +1921,11 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A37:A66" si="1">ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1933,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G37">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1951,7 +1955,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1963,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G38">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1981,7 +1985,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1993,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G39">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2011,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2023,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G40">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2041,7 +2045,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2053,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="F41">
+        <v>3000</v>
+      </c>
+      <c r="G41">
         <v>1500</v>
-      </c>
-      <c r="G41">
-        <v>750</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2071,7 +2075,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2089,7 +2093,7 @@
         <v>750</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2101,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2113,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2127,11 +2131,11 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2143,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2157,29 +2161,29 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45">
         <v>100</v>
       </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
       <c r="H45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2191,7 +2195,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2203,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2221,7 +2225,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2233,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2251,7 +2255,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2263,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G48">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2281,7 +2285,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2293,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G49">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2311,7 +2315,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2323,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G50">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2341,7 +2345,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2353,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G51">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2371,7 +2375,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2383,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2401,7 +2405,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2413,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2431,7 +2435,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2443,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G54">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2461,7 +2465,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2473,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G55">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2491,7 +2495,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2503,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2521,7 +2525,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2533,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G57">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2551,7 +2555,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2563,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G58">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2581,7 +2585,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2593,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G59">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2611,7 +2615,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2623,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G60">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2641,7 +2645,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2653,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G61">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2671,7 +2675,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2683,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G62">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2701,7 +2705,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2713,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G63">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -2731,7 +2735,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2761,7 +2765,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2773,15 +2777,45 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G65">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>700</v>
+      </c>
+      <c r="G66">
+        <v>350</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2831,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3346,7 @@
         <v>300</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A79794-B486-475F-8342-CE5B984990D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC815DF-4555-487E-9CD2-DFE7D32DCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1065" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -455,6 +455,10 @@
   </si>
   <si>
     <t>gelatin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_splitter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -827,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2828,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2878,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A21" si="0">ROW()+98</f>
+        <f t="shared" ref="A2:A22" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2926,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -2956,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -3253,7 +3257,7 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3283,7 +3287,7 @@
         <v>150</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3298,22 +3302,22 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3328,7 +3332,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3340,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -3358,7 +3362,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3370,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G18">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3388,22 +3392,22 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3418,7 +3422,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3430,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3448,32 +3452,59 @@
         <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>500</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>250</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
@@ -3540,6 +3571,9 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC815DF-4555-487E-9CD2-DFE7D32DCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78BD05-7E68-47E0-93CA-000A0B0CFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1065" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="1200" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2834,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78BD05-7E68-47E0-93CA-000A0B0CFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974D5B2-527A-443C-A827-C6F752F09855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1200" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1065" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -459,6 +459,10 @@
   </si>
   <si>
     <t>egg_splitter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rich_komugiko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -2832,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2878,11 +2882,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A22" si="0">ROW()+98</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -2894,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2912,7 +2916,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2930,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -2942,7 +2946,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -2972,7 +2976,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -2984,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3002,7 +3006,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -3014,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3032,7 +3036,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -3050,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -3062,7 +3066,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -3074,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3092,7 +3096,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -3104,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -3122,7 +3126,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -3134,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3152,7 +3156,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -3164,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3182,7 +3186,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -3194,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3212,25 +3216,25 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3242,22 +3246,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3272,7 +3276,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3284,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3302,7 +3306,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3314,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3332,22 +3336,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3362,7 +3366,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3374,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3392,7 +3396,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3404,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G19">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3422,22 +3426,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3452,7 +3456,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3464,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3482,32 +3486,59 @@
         <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>500</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>250</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -3574,6 +3605,9 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974D5B2-527A-443C-A827-C6F752F09855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D824B-A611-4697-B880-1925837F3C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1065" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1530" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,7 +1861,7 @@
         <v>150</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2838,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D824B-A611-4697-B880-1925837F3C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BDAC28-F0BF-4581-9984-503A201036E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1530" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -463,6 +463,14 @@
   </si>
   <si>
     <t>rich_komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jewery_candy_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -833,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1929,7 +1937,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" ref="A37:A66" si="1">ROW()-2</f>
+        <f t="shared" ref="A37:A67" si="1">ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2443,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2461,7 +2469,7 @@
         <v>150</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2473,7 +2481,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2485,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G55">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2503,7 +2511,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2515,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G56">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2533,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2545,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2563,7 +2571,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2575,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2593,7 +2601,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2605,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G59">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2623,7 +2631,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2635,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G60">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2653,7 +2661,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2665,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G61">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2683,7 +2691,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2695,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G62">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2713,7 +2721,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2725,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G63">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2743,7 +2751,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2755,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G64">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -2773,7 +2781,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2803,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2815,15 +2823,45 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G66">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>700</v>
+      </c>
+      <c r="G67">
+        <v>350</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3618,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3694,7 +3732,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A17" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A18" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3920,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4028,25 +4066,25 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -4058,7 +4096,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4070,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -4088,7 +4126,7 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4100,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -4118,7 +4156,7 @@
         <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4130,20 +4168,47 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -4207,6 +4272,9 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BDAC28-F0BF-4581-9984-503A201036E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFF91E-299A-4587-911E-4697D38D822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -471,6 +471,14 @@
   </si>
   <si>
     <t>jewery_candy_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coffee_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiramisu_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -841,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1509,7 +1517,7 @@
         <v>25</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1937,7 +1945,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" ref="A37:A67" si="1">ROW()-2</f>
+        <f t="shared" ref="A37:A69" si="1">ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2601,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2613,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G59">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2631,7 +2639,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2643,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="F60">
+        <v>2000</v>
+      </c>
+      <c r="G60">
         <v>1000</v>
       </c>
-      <c r="G60">
-        <v>500</v>
-      </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2661,7 +2669,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2673,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G61">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2691,7 +2699,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2703,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G62">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2721,7 +2729,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2733,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="G63">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2751,7 +2759,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2763,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F64">
+        <v>3000</v>
+      </c>
+      <c r="G64">
         <v>1500</v>
       </c>
-      <c r="G64">
-        <v>750</v>
-      </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2781,7 +2789,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2793,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G65">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2811,7 +2819,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2823,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G66">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -2841,7 +2849,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2853,15 +2861,75 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G67">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>500</v>
+      </c>
+      <c r="G68">
+        <v>250</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>700</v>
+      </c>
+      <c r="G69">
+        <v>350</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFF91E-299A-4587-911E-4697D38D822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39520659-BF2F-45BC-AA3C-05A7D4970200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -479,6 +479,10 @@
   </si>
   <si>
     <t>tiramisu_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coffee_beans</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -849,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -895,7 +899,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A45" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A46" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1139,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1151,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1169,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -1181,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1199,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -1211,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1229,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1241,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
         <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1259,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -1271,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1289,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -1301,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1319,25 +1323,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1349,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1379,7 +1383,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1409,7 +1413,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1439,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1469,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1499,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1514,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1529,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1541,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1559,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1571,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1589,7 +1593,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1604,10 +1608,10 @@
         <v>50</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1619,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1631,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1649,7 +1653,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -1679,13 +1683,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>50</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1694,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1709,22 +1713,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>10</v>
       </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
       <c r="G29">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1739,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -1751,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1769,25 +1773,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1799,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1811,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1829,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1841,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1859,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1871,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1889,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1901,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G35">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1919,7 +1923,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1931,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G36">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1945,29 +1949,29 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" ref="A37:A69" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1975,11 +1979,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A38:A70" si="1">ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1991,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G38">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2009,7 +2013,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2021,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G39">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2039,7 +2043,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2051,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G40">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2069,7 +2073,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2081,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G41">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2099,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2111,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="F42">
+        <v>3000</v>
+      </c>
+      <c r="G42">
         <v>1500</v>
-      </c>
-      <c r="G42">
-        <v>750</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2129,7 +2133,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2147,7 +2151,7 @@
         <v>750</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2159,7 +2163,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2171,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G44">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2185,11 +2189,11 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2201,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2215,29 +2219,29 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>6</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46">
         <v>100</v>
       </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2249,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2261,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2279,7 +2283,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2291,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2309,7 +2313,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2321,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G49">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2339,7 +2343,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2351,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G50">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2369,7 +2373,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2381,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2399,7 +2403,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2411,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G52">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2429,7 +2433,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2441,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2459,7 +2463,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2471,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2489,7 +2493,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2507,7 +2511,7 @@
         <v>150</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2519,7 +2523,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2531,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G56">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2549,7 +2553,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2561,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G57">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2579,7 +2583,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2591,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G58">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2609,7 +2613,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2627,7 +2631,7 @@
         <v>150</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2639,7 +2643,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2651,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G60">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -2669,7 +2673,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2681,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2699,7 +2703,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2711,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G62">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2729,7 +2733,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2741,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G63">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2759,7 +2763,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2771,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G64">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2789,7 +2793,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2801,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G65">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2819,7 +2823,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2831,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G66">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2849,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2861,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -2879,7 +2883,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2909,7 +2913,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2921,15 +2925,45 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G69">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>700</v>
+      </c>
+      <c r="G70">
+        <v>350</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39520659-BF2F-45BC-AA3C-05A7D4970200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60616A-BA8F-403D-9581-23B343F18134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2721,7 +2721,7 @@
         <v>250</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60616A-BA8F-403D-9581-23B343F18134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F54178-D7C3-460A-933F-6A70270D09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1650" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -483,6 +483,10 @@
   </si>
   <si>
     <t>coffee_beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -855,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
@@ -3758,10 +3762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3834,7 +3838,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A18" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A19" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4168,22 +4172,22 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4198,25 +4202,25 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -4228,7 +4232,7 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4240,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -4258,7 +4262,7 @@
         <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4270,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -4288,7 +4292,7 @@
         <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4300,20 +4304,47 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -4377,6 +4408,9 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F54178-D7C3-460A-933F-6A70270D09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010FC2-801D-47C1-A74B-5A0C37E6866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1650" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010FC2-801D-47C1-A74B-5A0C37E6866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0592618-89E2-40AC-AF9D-C378893A8833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3764,7 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0592618-89E2-40AC-AF9D-C378893A8833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422F9F4-ED57-46CF-A1C3-1E8EB33F1DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1320" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -406,14 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>egg_white</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>egg_yellow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sponge_cake_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,6 +479,10 @@
   </si>
   <si>
     <t>recipibook_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rich_milk</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -859,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -886,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -898,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1147,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1237,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1897,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2497,7 +2493,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2647,7 +2643,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2677,7 +2673,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2737,7 +2733,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2857,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2887,7 +2883,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2917,7 +2913,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2947,7 +2943,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2980,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3009,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -3021,16 +3017,16 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A23" si="0">ROW()+98</f>
+        <f t="shared" ref="A2:A22" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3090,7 +3086,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -3102,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -3120,7 +3116,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -3132,13 +3128,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3150,7 +3146,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -3162,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3180,7 +3176,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -3198,7 +3194,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -3210,7 +3206,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -3222,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3240,7 +3236,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -3252,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -3270,7 +3266,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -3282,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3300,7 +3296,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -3312,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3330,22 +3326,22 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
         <v>4</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3360,25 +3356,25 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3390,22 +3386,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3420,7 +3416,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3432,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3450,7 +3446,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3462,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G16">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3480,22 +3476,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G17">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3510,7 +3506,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3522,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3540,7 +3536,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3552,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3570,22 +3566,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3600,7 +3596,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3612,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3630,7 +3626,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3642,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3655,34 +3651,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>500</v>
-      </c>
-      <c r="G23">
-        <v>250</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -3749,9 +3718,6 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3791,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -3803,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4112,7 +4078,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4172,7 +4138,7 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4202,7 +4168,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>50</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422F9F4-ED57-46CF-A1C3-1E8EB33F1DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD59755-D8AE-4325-A2CD-5A62684FA5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1320" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -483,6 +483,30 @@
   </si>
   <si>
     <t>rich_milk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>degwatery_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>degoily_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>degpowdery_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_degwatery_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_degoily_potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_degpowdery_potion</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2978,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3134,7 +3158,7 @@
         <v>150</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3728,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3804,7 +3828,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A19" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A25" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4168,7 +4192,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -4198,25 +4222,25 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -4228,22 +4252,22 @@
         <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4258,25 +4282,25 @@
         <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -4288,47 +4312,209 @@
         <v>217</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="G19">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
@@ -4377,6 +4563,24 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD59755-D8AE-4325-A2CD-5A62684FA5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68593CD8-D990-49CE-B566-88DF64C3AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -498,15 +498,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gold_degwatery_potion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gold_degoily_potion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gold_degpowdery_potion</t>
+    <t>degwatery_potion_gold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>degoily_potion_gold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>degpowdery_potion_gold</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -3003,7 +3003,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3158,7 +3158,7 @@
         <v>150</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3754,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68593CD8-D990-49CE-B566-88DF64C3AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640CB196-9BB7-4666-8E4A-762EBD518DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -507,6 +507,14 @@
   </si>
   <si>
     <t>degpowdery_potion_gold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_oven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_oven</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -877,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -923,7 +931,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A46" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A48" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2003,26 +2011,26 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" ref="A38:A70" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G38">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2033,29 +2041,29 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2063,11 +2071,11 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A40:A72" si="1">ROW()-2</f>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2079,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G40">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -2097,7 +2105,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2109,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G41">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2127,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2139,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="G42">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2157,7 +2165,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2169,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G43">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2187,7 +2195,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2199,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="F44">
+        <v>3000</v>
+      </c>
+      <c r="G44">
         <v>1500</v>
       </c>
-      <c r="G44">
-        <v>750</v>
-      </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2217,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2229,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G45">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2243,11 +2251,11 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2259,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2277,25 +2285,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>6</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2303,29 +2311,29 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2337,7 +2345,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2349,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2367,7 +2375,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2379,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G50">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2397,7 +2405,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2409,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G51">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2427,7 +2435,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2439,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G52">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2457,7 +2465,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2487,7 +2495,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2499,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2517,7 +2525,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2529,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2547,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2559,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2577,7 +2585,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2589,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G57">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2607,7 +2615,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2619,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2637,7 +2645,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2649,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2667,7 +2675,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2679,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2697,7 +2705,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2709,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2727,7 +2735,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2739,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G62">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -2757,7 +2765,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2769,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="F63">
+        <v>2000</v>
+      </c>
+      <c r="G63">
         <v>1000</v>
       </c>
-      <c r="G63">
-        <v>500</v>
-      </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2787,7 +2795,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2799,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2817,7 +2825,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2829,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G65">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2847,7 +2855,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2859,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="G66">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2877,7 +2885,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2889,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="F67">
+        <v>3000</v>
+      </c>
+      <c r="G67">
         <v>1500</v>
       </c>
-      <c r="G67">
-        <v>750</v>
-      </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -2907,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2919,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G68">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2937,7 +2945,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2949,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G69">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -2967,7 +2975,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2979,15 +2987,75 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G70">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>500</v>
+      </c>
+      <c r="G71">
+        <v>250</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>700</v>
+      </c>
+      <c r="G72">
+        <v>350</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640CB196-9BB7-4666-8E4A-762EBD518DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141B225-B210-47BD-B00A-996449C37044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -3822,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141B225-B210-47BD-B00A-996449C37044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFBE8DB-DFA3-44B3-A0DC-D07B036CAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -515,6 +515,14 @@
   </si>
   <si>
     <t>gold_oven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_12</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -887,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3068,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3114,11 +3122,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A22" si="0">ROW()+98</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()+98</f>
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3130,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -3148,10 +3156,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3160,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -3178,7 +3186,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -3190,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3208,7 +3216,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -3220,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3238,7 +3246,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -3250,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -3268,7 +3276,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -3286,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -3298,7 +3306,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -3310,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3328,7 +3336,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -3340,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -3358,7 +3366,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -3370,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3388,7 +3396,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -3400,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3418,7 +3426,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -3430,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3448,25 +3456,25 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3478,22 +3486,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3508,7 +3516,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3520,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3538,7 +3546,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3550,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3568,22 +3576,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3598,7 +3606,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3610,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3628,7 +3636,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3640,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G19">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3658,22 +3666,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3688,7 +3696,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3700,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3718,32 +3726,59 @@
         <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>500</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>250</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -3810,20 +3845,23 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3896,7 +3934,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A25" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A27" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4260,22 +4298,22 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4290,22 +4328,22 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4320,7 +4358,7 @@
         <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -4350,7 +4388,7 @@
         <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -4359,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -4380,7 +4418,7 @@
         <v>217</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -4389,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4410,7 +4448,7 @@
         <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -4440,7 +4478,7 @@
         <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -4449,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4470,25 +4508,25 @@
         <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -4500,22 +4538,22 @@
         <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4530,7 +4568,7 @@
         <v>222</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4545,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4560,7 +4598,7 @@
         <v>223</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4572,23 +4610,77 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -4649,6 +4741,12 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFBE8DB-DFA3-44B3-A0DC-D07B036CAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB3809-2BDD-4301-99F4-EDE099894D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="930" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -523,6 +523,14 @@
   </si>
   <si>
     <t>recipibook_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_suger</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3078,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3858,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3934,7 +3942,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A27" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A29" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4238,25 +4246,25 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -4268,25 +4276,25 @@
         <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -4298,7 +4306,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4307,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -4328,7 +4336,7 @@
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4337,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4358,22 +4366,22 @@
         <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4388,22 +4396,22 @@
         <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4418,7 +4426,7 @@
         <v>217</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -4448,7 +4456,7 @@
         <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -4457,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -4478,7 +4486,7 @@
         <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -4487,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4508,7 +4516,7 @@
         <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -4538,7 +4546,7 @@
         <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -4547,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -4568,25 +4576,25 @@
         <v>222</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -4598,22 +4606,22 @@
         <v>223</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -4628,7 +4636,7 @@
         <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4643,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4658,7 +4666,7 @@
         <v>225</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4670,23 +4678,77 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="G27">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
@@ -4747,6 +4809,12 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB3809-2BDD-4301-99F4-EDE099894D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46C31C-A089-40EB-95BD-A9BCCFD1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="930" windowWidth="24240" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1620" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -531,6 +531,30 @@
   </si>
   <si>
     <t>gold_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>music_box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3866,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3942,7 +3966,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A29" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A35" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4651,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4751,60 +4775,222 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>2000</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2000</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2000</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2000</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2000</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
@@ -4815,6 +5001,24 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46C31C-A089-40EB-95BD-A9BCCFD1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78221E6E-0C3F-4DF0-96BE-CB7092200397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1620" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3893,7 +3893,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78221E6E-0C3F-4DF0-96BE-CB7092200397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934D62F-F39F-4AF7-BBAC-9422C643EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="1935" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -555,6 +555,38 @@
   </si>
   <si>
     <t>Record_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3890,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3966,7 +3998,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A35" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A43" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4822,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -4852,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2000</v>
@@ -4882,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2000</v>
@@ -4912,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -4942,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2000</v>
@@ -4955,28 +4987,244 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2100</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2101</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2102</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2103</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2104</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2105</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2106</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2107</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
@@ -5019,6 +5267,30 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934D62F-F39F-4AF7-BBAC-9422C643EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAEB991-8E8C-406E-A442-E2241CA168F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1935" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1590" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3925,7 +3925,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAEB991-8E8C-406E-A442-E2241CA168F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F502E4-1E6A-4A53-B571-39B8D908B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="1590" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3925,7 +3925,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4824,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>2000</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F502E4-1E6A-4A53-B571-39B8D908B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B68FD-185E-4D30-970F-93AB1B79DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1590" windowWidth="23415" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3142,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3223,7 +3223,7 @@
         <v>105</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3924,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B68FD-185E-4D30-970F-93AB1B79DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C9C83-6156-4A5A-BD31-A79735B60119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2865" windowWidth="21600" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3142,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -3924,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -4854,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
         <v>2</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -4884,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
         <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
       </c>
       <c r="H32">
         <v>2000</v>
@@ -4914,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>2</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
       </c>
       <c r="H33">
         <v>2000</v>
@@ -4944,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
         <v>2</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C9C83-6156-4A5A-BD31-A79735B60119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC351D4E-E230-4B85-911A-F8108C585381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2865" windowWidth="21600" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2025" windowWidth="21660" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -587,6 +587,18 @@
   </si>
   <si>
     <t>Record_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hikari_speed_up1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skip_sleep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hikari_manpuku_deg3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3922,10 +3934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3998,7 +4010,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A43" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A46" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5227,13 +5239,94 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>2000</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>2000</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>2000</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
@@ -5291,6 +5384,9 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC351D4E-E230-4B85-911A-F8108C585381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028A750-3E4F-4C33-ADA4-3AE4F3DEE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2025" windowWidth="21660" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -599,6 +599,46 @@
   </si>
   <si>
     <t>hikari_manpuku_deg3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pink_ninjin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saboten_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dryflowerpot_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shokukan_powerup2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mini_house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_powerup2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tea_powerup2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crepe_powerup2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aroma_potion1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magic_crystal1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -969,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1055,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A48" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1045,7 +1085,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1075,7 +1115,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1105,7 +1145,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1135,7 +1175,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1165,7 +1205,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1195,7 +1235,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1225,7 +1265,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1255,7 +1295,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1285,7 +1325,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1315,7 +1355,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1345,7 +1385,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1375,7 +1415,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1405,7 +1445,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1435,7 +1475,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1465,7 +1505,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1495,7 +1535,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1525,7 +1565,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1555,7 +1595,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1585,7 +1625,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1615,7 +1655,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1645,7 +1685,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1675,7 +1715,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1705,7 +1745,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1735,7 +1775,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1765,7 +1805,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1795,7 +1835,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1825,7 +1865,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1855,7 +1895,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1885,7 +1925,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1915,7 +1955,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1945,7 +1985,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1975,7 +2015,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2005,7 +2045,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2035,7 +2075,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2065,7 +2105,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2095,7 +2135,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2125,7 +2165,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2155,7 +2195,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" ref="A40:A72" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2185,7 +2225,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2215,7 +2255,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2245,7 +2285,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2275,7 +2315,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2305,7 +2345,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2335,7 +2375,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2365,7 +2405,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2395,7 +2435,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2425,29 +2465,29 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>6</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2455,29 +2495,29 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>7500</v>
       </c>
       <c r="G50">
-        <v>75</v>
+        <v>3750</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2485,11 +2525,11 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2501,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2515,11 +2555,11 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2531,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G52">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2545,11 +2585,11 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2561,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G53">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2575,11 +2615,11 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2591,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2605,11 +2645,11 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2635,11 +2675,11 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2651,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2665,11 +2705,11 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2681,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2695,11 +2735,11 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2711,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2725,11 +2765,11 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2741,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G59">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2755,11 +2795,11 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2771,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G60">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2785,11 +2825,11 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2801,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G61">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2815,11 +2855,11 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2831,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2845,11 +2885,11 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2861,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G63">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2875,11 +2915,11 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2891,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G64">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2905,11 +2945,11 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2921,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F65">
+        <v>2000</v>
+      </c>
+      <c r="G65">
         <v>1000</v>
       </c>
-      <c r="G65">
-        <v>500</v>
-      </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2935,11 +2975,11 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2951,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G66">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2965,11 +3005,11 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2981,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G67">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2995,11 +3035,11 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3011,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="G68">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3025,11 +3065,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3041,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="F69">
+        <v>3000</v>
+      </c>
+      <c r="G69">
         <v>1500</v>
       </c>
-      <c r="G69">
-        <v>750</v>
-      </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3055,11 +3095,11 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3071,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G70">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -3085,11 +3125,11 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3101,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G71">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -3115,11 +3155,11 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3131,15 +3171,75 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G72">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f>ROW()-2</f>
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
+      </c>
+      <c r="G73">
+        <v>250</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f>ROW()-2</f>
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>700</v>
+      </c>
+      <c r="G74">
+        <v>350</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3934,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4010,7 +4110,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A46" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A54" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5244,7 +5344,7 @@
         <v>242</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -5256,10 +5356,10 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>2000</v>
@@ -5274,7 +5374,7 @@
         <v>243</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5286,10 +5386,10 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>2000</v>
@@ -5304,7 +5404,7 @@
         <v>244</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -5313,13 +5413,13 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>2000</v>
@@ -5329,57 +5429,273 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2000</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>2000</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>2000</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>2000</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2000</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
@@ -5387,6 +5703,27 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028A750-3E4F-4C33-ADA4-3AE4F3DEE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56726CD9-E724-4B79-A2C7-B1530FE54981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2415" windowWidth="23565" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -639,6 +639,10 @@
   </si>
   <si>
     <t>magic_crystal1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suger_powder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,9 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1009,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1059,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A34" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1085,7 +1089,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1115,7 +1119,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1145,7 +1149,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1175,7 +1179,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1205,7 +1209,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1235,7 +1239,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1265,7 +1269,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1295,7 +1299,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1325,7 +1329,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1355,7 +1359,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1385,7 +1389,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1415,7 +1419,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1445,7 +1449,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1475,7 +1479,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1505,7 +1509,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1535,7 +1539,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1565,7 +1569,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1595,7 +1599,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1625,7 +1629,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1655,7 +1659,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1685,11 +1689,11 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -1704,10 +1708,10 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1715,11 +1719,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1731,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1745,11 +1749,11 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1761,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1775,11 +1779,11 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1794,10 +1798,10 @@
         <v>50</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1805,11 +1809,11 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -1821,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1835,11 +1839,11 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -1865,17 +1869,17 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1884,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1895,26 +1899,26 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
       <c r="G30">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1925,11 +1929,11 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>50</v>
@@ -1941,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1955,29 +1959,29 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1985,11 +1989,11 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2001,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2015,11 +2019,11 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2031,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2045,11 +2049,11 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A35:A66" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2061,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2075,11 +2079,11 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2091,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G36">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2105,11 +2109,11 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2121,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G37">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2135,11 +2139,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2151,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G38">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2165,11 +2169,11 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2181,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G39">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2195,29 +2199,29 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G40">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2225,11 +2229,11 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2241,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G41">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2255,11 +2259,11 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2271,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2285,11 +2289,11 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2301,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G43">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2315,11 +2319,11 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2331,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G44">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2345,11 +2349,11 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2361,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="F45">
+        <v>3000</v>
+      </c>
+      <c r="G45">
         <v>1500</v>
-      </c>
-      <c r="G45">
-        <v>750</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2375,11 +2379,11 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2397,7 +2401,7 @@
         <v>750</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2405,11 +2409,11 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2421,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G47">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2435,11 +2439,11 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2451,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2465,11 +2469,11 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2481,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2495,11 +2499,11 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2511,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G50">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="H50">
         <v>2000</v>
@@ -2525,29 +2529,29 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>3750</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -2555,11 +2559,11 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2571,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2585,11 +2589,11 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2601,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2615,11 +2619,11 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2631,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G54">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2645,11 +2649,11 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2661,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G55">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2675,11 +2679,11 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2691,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G56">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2705,11 +2709,11 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2721,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G57">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2735,11 +2739,11 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2751,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2781,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2795,11 +2799,11 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2817,7 +2821,7 @@
         <v>150</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2825,11 +2829,11 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2841,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2855,11 +2859,11 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2871,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G62">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2885,11 +2889,11 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2901,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2915,11 +2919,11 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2937,7 +2941,7 @@
         <v>150</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2945,11 +2949,11 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2961,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G65">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2975,11 +2979,11 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2991,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G66">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3005,11 +3009,11 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A67:A75" si="2">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3021,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G67">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -3035,11 +3039,11 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3051,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G68">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3065,11 +3069,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3081,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G69">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3095,11 +3099,11 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3111,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G70">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -3125,11 +3129,11 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3141,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G71">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -3155,11 +3159,11 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3171,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G72">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -3185,11 +3189,11 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3215,11 +3219,11 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3231,15 +3235,45 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G74">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>700</v>
+      </c>
+      <c r="G75">
+        <v>350</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4036,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4936,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>2000</v>
@@ -4966,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -4996,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2000</v>
@@ -5026,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2000</v>
@@ -5056,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5422,7 +5456,7 @@
         <v>3</v>
       </c>
       <c r="H46">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -5566,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>2000</v>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56726CD9-E724-4B79-A2C7-B1530FE54981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCC7FB-C440-4D8F-A713-4765260C4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2415" windowWidth="23565" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="3300" windowWidth="23565" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -643,6 +643,14 @@
   </si>
   <si>
     <t>suger_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_powerup3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hikari_powerup1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1013,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2057,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" ref="A35:A66" si="1">ROW()-2</f>
+        <f t="shared" ref="A35:A67" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2503,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2533,7 +2541,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2545,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G51">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="H51">
         <v>2000</v>
@@ -2563,25 +2571,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>6</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>3750</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2593,7 +2601,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2605,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2623,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2635,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2653,7 +2661,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2665,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G55">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2683,7 +2691,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2695,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G56">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2713,7 +2721,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2725,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2743,7 +2751,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2755,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2773,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2785,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2803,7 +2811,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2815,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2833,7 +2841,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2851,7 +2859,7 @@
         <v>150</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2863,7 +2871,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2875,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G62">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2893,7 +2901,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2905,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G63">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2923,7 +2931,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2935,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2953,7 +2961,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2971,7 +2979,7 @@
         <v>150</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2983,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2995,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G66">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3009,11 +3017,11 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A75" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3025,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -3039,11 +3047,11 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A68:A76" si="2">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3055,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3073,7 +3081,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3085,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G69">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3103,7 +3111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3115,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G70">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -3133,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3145,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G71">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3163,7 +3171,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3175,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G72">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -3193,7 +3201,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3205,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G73">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -3223,7 +3231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3253,27 +3261,57 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>500</v>
+      </c>
+      <c r="G75">
+        <v>250</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>700</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>350</v>
       </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4068,10 +4106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4144,7 +4182,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A54" si="0">ROW()+198</f>
+        <f t="shared" ref="A3:A55" si="0">ROW()+198</f>
         <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5618,7 +5656,7 @@
         <v>250</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5630,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>2000</v>
@@ -5648,7 +5686,7 @@
         <v>251</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5660,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>2000</v>
@@ -5678,7 +5716,7 @@
         <v>252</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5690,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2000</v>
@@ -5703,7 +5741,34 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2000</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -5758,6 +5823,9 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCC7FB-C440-4D8F-A713-4765260C4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53712BD3-C0E9-46C2-80CD-B68948303D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3300" windowWidth="23565" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -725,9 +725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,7 +765,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -871,7 +871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A34" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1097,7 +1097,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A2:A34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3327,7 +3327,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3370,8 +3370,8 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A23" si="0">ROW()+98</f>
-        <v>100</v>
+        <f>ROW()-2+5000</f>
+        <v>5000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -3400,8 +3400,8 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f t="shared" ref="A3:A23" si="0">ROW()-2+5000</f>
+        <v>5001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>105</v>
@@ -3431,7 +3431,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>5002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -3461,7 +3461,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>5003</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -3491,7 +3491,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>5004</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>112</v>
@@ -3521,7 +3521,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>5005</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
@@ -3551,7 +3551,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>5006</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>87</v>
@@ -3581,7 +3581,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>5007</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>85</v>
@@ -3611,7 +3611,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>5008</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
@@ -3641,7 +3641,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>5009</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>81</v>
@@ -3671,7 +3671,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>5010</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -3701,7 +3701,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>5011</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
@@ -3731,7 +3731,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>5012</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -3761,7 +3761,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>5013</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -3791,7 +3791,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>5014</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -3821,7 +3821,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>5015</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>104</v>
@@ -3851,7 +3851,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>5016</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -3881,7 +3881,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>5017</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -3911,7 +3911,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>5018</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>62</v>
@@ -3941,7 +3941,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>5019</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -3971,7 +3971,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>5020</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>47</v>
@@ -4001,7 +4001,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>5021</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>82</v>
@@ -4108,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F419484-2581-4537-A85C-9AB9116FDAC4}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4152,8 +4152,8 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()+198</f>
-        <v>200</v>
+        <f>ROW()-2+10000</f>
+        <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
@@ -4182,8 +4182,8 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A55" si="0">ROW()+198</f>
-        <v>201</v>
+        <f t="shared" ref="A3:A55" si="0">ROW()-2+10000</f>
+        <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -4213,7 +4213,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>75</v>
@@ -4243,7 +4243,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
@@ -4273,7 +4273,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
@@ -4303,7 +4303,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>58</v>
@@ -4333,7 +4333,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -4363,7 +4363,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -4393,7 +4393,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>77</v>
@@ -4423,7 +4423,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>78</v>
@@ -4453,7 +4453,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>98</v>
@@ -4483,7 +4483,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>123</v>
@@ -4513,7 +4513,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>124</v>
@@ -4543,7 +4543,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -4573,7 +4573,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>111</v>
@@ -4603,7 +4603,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>121</v>
@@ -4633,7 +4633,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>122</v>
@@ -4663,7 +4663,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>10017</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>113</v>
@@ -4693,7 +4693,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>10018</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>114</v>
@@ -4723,7 +4723,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>10019</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>115</v>
@@ -4753,7 +4753,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>10020</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>116</v>
@@ -4783,7 +4783,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>10021</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>117</v>
@@ -4813,7 +4813,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>10022</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>118</v>
@@ -4843,7 +4843,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>10023</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
@@ -4873,7 +4873,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>10024</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
@@ -4903,7 +4903,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>10025</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -4933,7 +4933,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>10026</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>65</v>
@@ -4963,7 +4963,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>10027</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>64</v>
@@ -4993,7 +4993,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>10028</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>125</v>
@@ -5023,7 +5023,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>10029</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>126</v>
@@ -5053,7 +5053,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>10030</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>127</v>
@@ -5083,7 +5083,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>10031</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>128</v>
@@ -5113,7 +5113,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>10032</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>129</v>
@@ -5143,7 +5143,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>10033</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>130</v>
@@ -5173,7 +5173,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>10034</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
@@ -5203,7 +5203,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>10035</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>132</v>
@@ -5233,7 +5233,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>10036</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>133</v>
@@ -5263,7 +5263,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>10037</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>134</v>
@@ -5293,7 +5293,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>10038</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
@@ -5323,7 +5323,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>10039</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>136</v>
@@ -5353,7 +5353,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>10040</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>137</v>
@@ -5383,7 +5383,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>10041</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>138</v>
@@ -5413,7 +5413,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>10042</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>142</v>
@@ -5443,7 +5443,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>10043</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>139</v>
@@ -5473,7 +5473,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>10044</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>141</v>
@@ -5503,7 +5503,7 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>10045</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>143</v>
@@ -5533,7 +5533,7 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>10046</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>150</v>
@@ -5563,7 +5563,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>10047</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -5593,7 +5593,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>10048</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>144</v>
@@ -5623,7 +5623,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>10049</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>140</v>
@@ -5653,7 +5653,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>10050</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -5683,7 +5683,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>10051</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>147</v>
@@ -5713,7 +5713,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>10052</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>149</v>
@@ -5743,7 +5743,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>10053</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>148</v>
